--- a/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
+++ b/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
@@ -864,10 +864,18 @@
       <c r="H12" t="n">
         <v>6.521624677964191</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>-0.009480606601132577</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01578916715912978</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.2836171216747701</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.311125364129039</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +906,18 @@
       <c r="H13" t="n">
         <v>9.981517865116112</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.008713973304380595</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01551982827831129</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.5380701125052759</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.392278948236461</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -968,10 +984,18 @@
       <c r="H15" t="n">
         <v>6.437865236174289</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.06622089617124935</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.03672917298683431</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6725847961907231</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.168892690376738</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,10 +1110,18 @@
       <c r="H18" t="n">
         <v>6.701751478932397</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.1697846028918021</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.07334250380262709</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4683031253288178</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.011110609254798</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
+++ b/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
@@ -612,19 +612,19 @@
         <v>0.3150684931506849</v>
       </c>
       <c r="D5" t="n">
-        <v>113572.7821611548</v>
+        <v>113573.6936913498</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02364971388389287</v>
+        <v>-0.02356514351686368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2280904105786195</v>
+        <v>0.2274410172975442</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.263958693419094</v>
+        <v>-1.23096294590669</v>
       </c>
       <c r="H5" t="n">
-        <v>10.19408306547632</v>
+        <v>9.76512849579626</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -646,19 +646,19 @@
         <v>0.410958904109589</v>
       </c>
       <c r="D6" t="n">
-        <v>114846.066095579</v>
+        <v>114830.5538012689</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01911308145765816</v>
+        <v>-0.02077481980262083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2162405929885567</v>
+        <v>0.2239908128572526</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7384202592535212</v>
+        <v>-0.8985853054275793</v>
       </c>
       <c r="H6" t="n">
-        <v>5.79255115018622</v>
+        <v>6.501530830932288</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -680,19 +680,19 @@
         <v>0.4876712328767123</v>
       </c>
       <c r="D7" t="n">
-        <v>114712.2899720394</v>
+        <v>115416.1813781023</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06247934041350461</v>
+        <v>-0.02258236139945237</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3972110828237425</v>
+        <v>0.2104007138331737</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.106957819502613</v>
+        <v>-0.3540548661700166</v>
       </c>
       <c r="H7" t="n">
-        <v>22.67099208072165</v>
+        <v>4.384467486549173</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -714,19 +714,19 @@
         <v>0.736986301369863</v>
       </c>
       <c r="D8" t="n">
-        <v>115303.6257735022</v>
+        <v>115287.7545103493</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04007572735261813</v>
+        <v>-0.04060636130763168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.214717051516982</v>
+        <v>0.2166517836764271</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.555647431198241</v>
+        <v>-1.603430736963122</v>
       </c>
       <c r="H8" t="n">
-        <v>10.88364694053477</v>
+        <v>11.25603432029452</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>0.8136986301369863</v>
       </c>
       <c r="D9" t="n">
-        <v>116985.7767390816</v>
+        <v>116821.5235108157</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06198556868268281</v>
+        <v>-0.06731304907521063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2975611053083361</v>
+        <v>0.3167145157044435</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.414129146786107</v>
+        <v>-1.664623964732298</v>
       </c>
       <c r="H9" t="n">
-        <v>9.370276450083585</v>
+        <v>10.88502509680619</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.063013698630137</v>
       </c>
       <c r="D10" t="n">
-        <v>118249.8975923125</v>
+        <v>118247.5070792605</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1124320365492087</v>
+        <v>-0.11316719516027</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4367955750814665</v>
+        <v>0.4421140365973167</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.806995414436236</v>
+        <v>-1.872113354886799</v>
       </c>
       <c r="H10" t="n">
-        <v>8.830287271443453</v>
+        <v>9.381189237443115</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1054,19 +1054,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D17" t="n">
-        <v>111326.066269682</v>
+        <v>111398.9421081011</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01041949757504418</v>
+        <v>-0.001876497208298536</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1910733424769783</v>
+        <v>0.159925512416507</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.995143935885795</v>
+        <v>-0.6340009709874348</v>
       </c>
       <c r="H17" t="n">
-        <v>19.67046363147106</v>
+        <v>4.74796040866665</v>
       </c>
       <c r="I17" t="n">
         <v>-0.04376850860813352</v>

--- a/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
+++ b/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>7.140504829698325</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.380479193013348</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1392722069632398</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1946104525241232</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.026921489117672</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>6.741788262191434</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.4138443184027755</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1369911672062933</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.1343742105325537</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.775616144130038</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
+++ b/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>43.53086165472727</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.4238415822648009</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2208003802520098</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2516512283222432</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.565679521489</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
+++ b/data_processed/20250902/BTCUSDQMOMENT_20250902.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>8.492973349451711</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.4121774926820508</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.52947771820412</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6311327964926509</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.929050836434688</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
